--- a/dist/xlsx/world_countries.xlsx
+++ b/dist/xlsx/world_countries.xlsx
@@ -432,6 +432,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="44" customWidth="1" min="4" max="4"/>
+    <col width="49" customWidth="1" min="5" max="5"/>
+    <col width="41" customWidth="1" min="6" max="6"/>
+    <col width="44" customWidth="1" min="7" max="7"/>
+    <col width="42" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/dist/xlsx/world_countries.xlsx
+++ b/dist/xlsx/world_countries.xlsx
@@ -10586,7 +10586,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -10606,7 +10606,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
